--- a/Math/ReactionRateModelParamGenerator.xlsx
+++ b/Math/ReactionRateModelParamGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75A674-8CC3-46A0-8D80-15DC48013656}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2290C-C3C2-410E-AEB2-7D975D8EDCA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="7536" xr2:uid="{EF41719A-4EAD-4C95-823F-3E5191F12380}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB28843C-2EB0-4C7D-995B-33DA9F67D20C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
